--- a/Code/Results/Cases/Case_7_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012972877435348</v>
+        <v>1.037596365451833</v>
       </c>
       <c r="D2">
-        <v>1.032555581454871</v>
+        <v>1.054046483389782</v>
       </c>
       <c r="E2">
-        <v>1.015193106727969</v>
+        <v>1.036477050954368</v>
       </c>
       <c r="F2">
-        <v>1.03299069889528</v>
+        <v>1.055595045234451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052777666245083</v>
+        <v>1.066421738483798</v>
       </c>
       <c r="J2">
-        <v>1.034772376379902</v>
+        <v>1.058707915465494</v>
       </c>
       <c r="K2">
-        <v>1.043579258170735</v>
+        <v>1.064800916704783</v>
       </c>
       <c r="L2">
-        <v>1.026444758771495</v>
+        <v>1.047450558468847</v>
       </c>
       <c r="M2">
-        <v>1.044008785460862</v>
+        <v>1.066330604114169</v>
       </c>
       <c r="N2">
-        <v>1.036241871844412</v>
+        <v>1.060211402140951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021878012274653</v>
+        <v>1.044935887322669</v>
       </c>
       <c r="D3">
-        <v>1.03978546944378</v>
+        <v>1.060147095550614</v>
       </c>
       <c r="E3">
-        <v>1.022929804889192</v>
+        <v>1.04287229227077</v>
       </c>
       <c r="F3">
-        <v>1.041145086857473</v>
+        <v>1.062485258397674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056242816144669</v>
+        <v>1.069767714249854</v>
       </c>
       <c r="J3">
-        <v>1.041789522511837</v>
+        <v>1.06427224875878</v>
       </c>
       <c r="K3">
-        <v>1.04993338958924</v>
+        <v>1.070064151876878</v>
       </c>
       <c r="L3">
-        <v>1.033277465818759</v>
+        <v>1.052984497556222</v>
       </c>
       <c r="M3">
-        <v>1.051277243841876</v>
+        <v>1.072376500414124</v>
       </c>
       <c r="N3">
-        <v>1.043268983128732</v>
+        <v>1.065783637425751</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027434816908517</v>
+        <v>1.049540424390205</v>
       </c>
       <c r="D4">
-        <v>1.044299885533097</v>
+        <v>1.063977040191896</v>
       </c>
       <c r="E4">
-        <v>1.027757618028909</v>
+        <v>1.046883553711749</v>
       </c>
       <c r="F4">
-        <v>1.046241080385754</v>
+        <v>1.066814637118695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058389956321663</v>
+        <v>1.071854509228811</v>
       </c>
       <c r="J4">
-        <v>1.046161852453939</v>
+        <v>1.067756503526246</v>
       </c>
       <c r="K4">
-        <v>1.053891506818462</v>
+        <v>1.073360090113064</v>
       </c>
       <c r="L4">
-        <v>1.037532189312789</v>
+        <v>1.05644724093602</v>
       </c>
       <c r="M4">
-        <v>1.05581169809072</v>
+        <v>1.076168383919473</v>
       </c>
       <c r="N4">
-        <v>1.047647522280866</v>
+        <v>1.069272840234636</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02972499567786</v>
+        <v>1.051443465097861</v>
       </c>
       <c r="D5">
-        <v>1.046161037820131</v>
+        <v>1.065560505822693</v>
       </c>
       <c r="E5">
-        <v>1.029747289852079</v>
+        <v>1.048541129310951</v>
       </c>
       <c r="F5">
-        <v>1.048343057921858</v>
+        <v>1.068605501901335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059271183412121</v>
+        <v>1.072713971158155</v>
       </c>
       <c r="J5">
-        <v>1.047962266149307</v>
+        <v>1.069194908682584</v>
       </c>
       <c r="K5">
-        <v>1.055521067828339</v>
+        <v>1.074720794750388</v>
       </c>
       <c r="L5">
-        <v>1.039283530897591</v>
+        <v>1.057876167462322</v>
       </c>
       <c r="M5">
-        <v>1.05768017060739</v>
+        <v>1.077735239756856</v>
       </c>
       <c r="N5">
-        <v>1.049450492770191</v>
+        <v>1.070713288091283</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030106924012703</v>
+        <v>1.051761128831519</v>
       </c>
       <c r="D6">
-        <v>1.046471449068528</v>
+        <v>1.065824855655012</v>
       </c>
       <c r="E6">
-        <v>1.030079097295768</v>
+        <v>1.048817801705967</v>
       </c>
       <c r="F6">
-        <v>1.048693698082264</v>
+        <v>1.068904529846963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059417924582545</v>
+        <v>1.072857258362358</v>
       </c>
       <c r="J6">
-        <v>1.048262421603123</v>
+        <v>1.069434916571344</v>
       </c>
       <c r="K6">
-        <v>1.055792721749361</v>
+        <v>1.074947839927205</v>
       </c>
       <c r="L6">
-        <v>1.03957546735312</v>
+        <v>1.058114558503431</v>
       </c>
       <c r="M6">
-        <v>1.057991748221444</v>
+        <v>1.077996765762666</v>
       </c>
       <c r="N6">
-        <v>1.04975107447918</v>
+        <v>1.070953636818775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027465594675022</v>
+        <v>1.049565979012524</v>
       </c>
       <c r="D7">
-        <v>1.04432489545418</v>
+        <v>1.063998301333029</v>
       </c>
       <c r="E7">
-        <v>1.027784357626389</v>
+        <v>1.046905813278809</v>
       </c>
       <c r="F7">
-        <v>1.046269322256417</v>
+        <v>1.066838679371212</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058401813879928</v>
+        <v>1.071866062296964</v>
       </c>
       <c r="J7">
-        <v>1.046186054667645</v>
+        <v>1.067775825372234</v>
       </c>
       <c r="K7">
-        <v>1.053913413517952</v>
+        <v>1.07337836806913</v>
       </c>
       <c r="L7">
-        <v>1.037555734427498</v>
+        <v>1.056466437830104</v>
       </c>
       <c r="M7">
-        <v>1.055836810070812</v>
+        <v>1.076189425478518</v>
       </c>
       <c r="N7">
-        <v>1.047671758864491</v>
+        <v>1.069292189519861</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016027024774612</v>
+        <v>1.040107943143956</v>
       </c>
       <c r="D8">
-        <v>1.035034466401552</v>
+        <v>1.056133499355074</v>
       </c>
       <c r="E8">
-        <v>1.017846440320982</v>
+        <v>1.038665643635628</v>
       </c>
       <c r="F8">
-        <v>1.035785666449065</v>
+        <v>1.057951408021288</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053969250400593</v>
+        <v>1.067569308232822</v>
       </c>
       <c r="J8">
-        <v>1.037180316270145</v>
+        <v>1.060613390528585</v>
       </c>
       <c r="K8">
-        <v>1.045759897884008</v>
+        <v>1.066603227671806</v>
       </c>
       <c r="L8">
-        <v>1.028789977013229</v>
+        <v>1.049346147393365</v>
       </c>
       <c r="M8">
-        <v>1.046501771322366</v>
+        <v>1.068399695758105</v>
       </c>
       <c r="N8">
-        <v>1.038653231285494</v>
+        <v>1.062119583197192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9941295495870514</v>
+        <v>1.022238437968614</v>
       </c>
       <c r="D9">
-        <v>1.017280637504306</v>
+        <v>1.04129963373869</v>
       </c>
       <c r="E9">
-        <v>0.9988274693608997</v>
+        <v>1.023093026418955</v>
       </c>
       <c r="F9">
-        <v>1.01578576243024</v>
+        <v>1.04121844822385</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045362819229305</v>
+        <v>1.059352922267053</v>
       </c>
       <c r="J9">
-        <v>1.019891325411023</v>
+        <v>1.047029621016165</v>
       </c>
       <c r="K9">
-        <v>1.030099434793559</v>
+        <v>1.053756395352679</v>
       </c>
       <c r="L9">
-        <v>1.011939598745028</v>
+        <v>1.035822225594645</v>
       </c>
       <c r="M9">
-        <v>1.028627815145939</v>
+        <v>1.053676397829158</v>
       </c>
       <c r="N9">
-        <v>1.021339688076277</v>
+        <v>1.048516523173984</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9780851309855029</v>
+        <v>1.009365528483851</v>
       </c>
       <c r="D10">
-        <v>1.004305212610131</v>
+        <v>1.030637097131159</v>
       </c>
       <c r="E10">
-        <v>0.9849040935125435</v>
+        <v>1.011876748779495</v>
       </c>
       <c r="F10">
-        <v>1.001190202712381</v>
+        <v>1.029209590866353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038979441260033</v>
+        <v>1.053370027424401</v>
       </c>
       <c r="J10">
-        <v>1.007196045532133</v>
+        <v>1.037212429016627</v>
       </c>
       <c r="K10">
-        <v>1.018597167766603</v>
+        <v>1.044474378003117</v>
       </c>
       <c r="L10">
-        <v>0.999551365444735</v>
+        <v>1.026034825595187</v>
       </c>
       <c r="M10">
-        <v>1.015538000882025</v>
+        <v>1.04307075173409</v>
       </c>
       <c r="N10">
-        <v>1.00862637944379</v>
+        <v>1.03868538963576</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9707181562625866</v>
+        <v>1.003523982667667</v>
       </c>
       <c r="D11">
-        <v>0.9983583343498593</v>
+        <v>1.025805772220464</v>
       </c>
       <c r="E11">
-        <v>0.978516086703509</v>
+        <v>1.006788681397661</v>
       </c>
       <c r="F11">
-        <v>0.994505358143342</v>
+        <v>1.023772360536319</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036031513845594</v>
+        <v>1.050640678380749</v>
       </c>
       <c r="J11">
-        <v>1.001361951589319</v>
+        <v>1.032750891142033</v>
       </c>
       <c r="K11">
-        <v>1.013311276629178</v>
+        <v>1.040256903728349</v>
       </c>
       <c r="L11">
-        <v>0.9938548586249027</v>
+        <v>1.021583698733274</v>
       </c>
       <c r="M11">
-        <v>1.009531644639247</v>
+        <v>1.03825947077696</v>
       </c>
       <c r="N11">
-        <v>1.002784000418397</v>
+        <v>1.034217515865637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9679107118892416</v>
+        <v>1.001310043303349</v>
       </c>
       <c r="D12">
-        <v>0.9960940238100739</v>
+        <v>1.023975938319573</v>
       </c>
       <c r="E12">
-        <v>0.9760827028295067</v>
+        <v>1.004860690506404</v>
       </c>
       <c r="F12">
-        <v>0.9919606974046037</v>
+        <v>1.021713633354212</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034905709402842</v>
+        <v>1.049604172251825</v>
       </c>
       <c r="J12">
-        <v>0.9991380947079581</v>
+        <v>1.031059063041637</v>
       </c>
       <c r="K12">
-        <v>1.011296440711723</v>
+        <v>1.038657774840845</v>
       </c>
       <c r="L12">
-        <v>0.9916829276721765</v>
+        <v>1.019895356101338</v>
       </c>
       <c r="M12">
-        <v>1.007243555694962</v>
+        <v>1.036436331693735</v>
       </c>
       <c r="N12">
-        <v>1.000556985405185</v>
+        <v>1.032523285175284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9685162762551127</v>
+        <v>1.001787006947564</v>
       </c>
       <c r="D13">
-        <v>0.9965823407373134</v>
+        <v>1.02437009329911</v>
       </c>
       <c r="E13">
-        <v>0.9766075337887193</v>
+        <v>1.005276031058555</v>
       </c>
       <c r="F13">
-        <v>0.9925094464024915</v>
+        <v>1.022157066962464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035148650099108</v>
+        <v>1.049827566435773</v>
       </c>
       <c r="J13">
-        <v>0.9996178022702104</v>
+        <v>1.031423584364501</v>
       </c>
       <c r="K13">
-        <v>1.011731056831099</v>
+        <v>1.039002316057792</v>
       </c>
       <c r="L13">
-        <v>0.9921514575777081</v>
+        <v>1.020259147170128</v>
       </c>
       <c r="M13">
-        <v>1.007737052931233</v>
+        <v>1.036829085648217</v>
       </c>
       <c r="N13">
-        <v>1.001037374207199</v>
+        <v>1.032888324160237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9704875922157903</v>
+        <v>1.003341902685017</v>
       </c>
       <c r="D14">
-        <v>0.9981723341395903</v>
+        <v>1.025655256112244</v>
       </c>
       <c r="E14">
-        <v>0.9783162212423008</v>
+        <v>1.006630110063054</v>
       </c>
       <c r="F14">
-        <v>0.9942963162338583</v>
+        <v>1.023603004655812</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035939103555015</v>
+        <v>1.050555475296093</v>
       </c>
       <c r="J14">
-        <v>1.001179325702661</v>
+        <v>1.032611768827546</v>
       </c>
       <c r="K14">
-        <v>1.013145814295058</v>
+        <v>1.040125401082697</v>
       </c>
       <c r="L14">
-        <v>0.9936765074189902</v>
+        <v>1.021444872357579</v>
       </c>
       <c r="M14">
-        <v>1.009343714525073</v>
+        <v>1.038109523757405</v>
       </c>
       <c r="N14">
-        <v>1.002601115182033</v>
+        <v>1.034078195981507</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9716925105606311</v>
+        <v>1.004293950685453</v>
       </c>
       <c r="D15">
-        <v>0.9991444449430301</v>
+        <v>1.026442316006728</v>
       </c>
       <c r="E15">
-        <v>0.9793607516197176</v>
+        <v>1.007459253810081</v>
       </c>
       <c r="F15">
-        <v>0.9953888775053817</v>
+        <v>1.024488602881266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03642193994631</v>
+        <v>1.051000895410702</v>
       </c>
       <c r="J15">
-        <v>1.002133699114593</v>
+        <v>1.033339166128356</v>
       </c>
       <c r="K15">
-        <v>1.014010496387435</v>
+        <v>1.040812965361795</v>
       </c>
       <c r="L15">
-        <v>0.9946085210284409</v>
+        <v>1.022170703620555</v>
       </c>
       <c r="M15">
-        <v>1.010325865432603</v>
+        <v>1.038893571193063</v>
       </c>
       <c r="N15">
-        <v>1.003556843913678</v>
+        <v>1.034806626269917</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9785645628723906</v>
+        <v>1.009747252415369</v>
       </c>
       <c r="D16">
-        <v>1.004692476666887</v>
+        <v>1.030952967765467</v>
       </c>
       <c r="E16">
-        <v>0.9853199380863069</v>
+        <v>1.012209281125056</v>
       </c>
       <c r="F16">
-        <v>1.001625613477003</v>
+        <v>1.029565158314232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039170951917234</v>
+        <v>1.05354808922105</v>
       </c>
       <c r="J16">
-        <v>1.007575632114683</v>
+        <v>1.037503844301983</v>
       </c>
       <c r="K16">
-        <v>1.018941090431932</v>
+        <v>1.044749871052447</v>
       </c>
       <c r="L16">
-        <v>0.9999219284637626</v>
+        <v>1.026325496832002</v>
       </c>
       <c r="M16">
-        <v>1.015928987228363</v>
+        <v>1.043385190428517</v>
       </c>
       <c r="N16">
-        <v>1.009006505082826</v>
+        <v>1.038977218764247</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9827576723754047</v>
+        <v>1.013093728702131</v>
       </c>
       <c r="D17">
-        <v>1.008080742797592</v>
+        <v>1.033722951108145</v>
       </c>
       <c r="E17">
-        <v>0.9889575035703021</v>
+        <v>1.015124714430169</v>
       </c>
       <c r="F17">
-        <v>1.005435633509866</v>
+        <v>1.032683719502094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040844024079903</v>
+        <v>1.055107497993718</v>
       </c>
       <c r="J17">
-        <v>1.010894961963896</v>
+        <v>1.040057869607605</v>
       </c>
       <c r="K17">
-        <v>1.021948555422557</v>
+        <v>1.047164448339151</v>
       </c>
       <c r="L17">
-        <v>1.003161958182837</v>
+        <v>1.028872649665282</v>
       </c>
       <c r="M17">
-        <v>1.019349022927776</v>
+        <v>1.046141966177329</v>
       </c>
       <c r="N17">
-        <v>1.012330548761157</v>
+        <v>1.041534871078754</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.985163561148341</v>
+        <v>1.015020155358588</v>
       </c>
       <c r="D18">
-        <v>1.010025830783089</v>
+        <v>1.035318178004127</v>
       </c>
       <c r="E18">
-        <v>0.9910450921560572</v>
+        <v>1.016803160539309</v>
       </c>
       <c r="F18">
-        <v>1.007623265843969</v>
+        <v>1.034480081330397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041802399127529</v>
+        <v>1.056003828881078</v>
       </c>
       <c r="J18">
-        <v>1.012799030889659</v>
+        <v>1.041527487003173</v>
       </c>
       <c r="K18">
-        <v>1.02367372066551</v>
+        <v>1.048553903490304</v>
       </c>
       <c r="L18">
-        <v>1.005020210254083</v>
+        <v>1.030338018811181</v>
       </c>
       <c r="M18">
-        <v>1.021311696535853</v>
+        <v>1.047729051002085</v>
       </c>
       <c r="N18">
-        <v>1.014237321683195</v>
+        <v>1.043006575499589</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859773621470014</v>
+        <v>1.015672800290669</v>
       </c>
       <c r="D19">
-        <v>1.010683924659789</v>
+        <v>1.035858725582653</v>
       </c>
       <c r="E19">
-        <v>0.9917512980546808</v>
+        <v>1.01737181589012</v>
       </c>
       <c r="F19">
-        <v>1.008363495597183</v>
+        <v>1.035088851079065</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042126299895013</v>
+        <v>1.056307260478328</v>
       </c>
       <c r="J19">
-        <v>1.013443005290555</v>
+        <v>1.042025262728393</v>
       </c>
       <c r="K19">
-        <v>1.024257185003288</v>
+        <v>1.049024539958076</v>
       </c>
       <c r="L19">
-        <v>1.005648633142092</v>
+        <v>1.030834305580429</v>
       </c>
       <c r="M19">
-        <v>1.021975631592563</v>
+        <v>1.048266749700359</v>
       </c>
       <c r="N19">
-        <v>1.014882210601605</v>
+        <v>1.043505058123436</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9823119696108362</v>
+        <v>1.012737349542998</v>
       </c>
       <c r="D20">
-        <v>1.007720484428384</v>
+        <v>1.033427894935737</v>
       </c>
       <c r="E20">
-        <v>0.9885708029629037</v>
+        <v>1.014814221989627</v>
       </c>
       <c r="F20">
-        <v>1.005030487646296</v>
+        <v>1.032351492819843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040666350590874</v>
+        <v>1.054941570957062</v>
       </c>
       <c r="J20">
-        <v>1.010542184599329</v>
+        <v>1.039785946350409</v>
       </c>
       <c r="K20">
-        <v>1.021628923434831</v>
+        <v>1.046907363659314</v>
       </c>
       <c r="L20">
-        <v>1.00281764289558</v>
+        <v>1.028601488604014</v>
       </c>
       <c r="M20">
-        <v>1.018985454999746</v>
+        <v>1.045848372800843</v>
       </c>
       <c r="N20">
-        <v>1.011977270412268</v>
+        <v>1.041262561659342</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9699091207554063</v>
+        <v>1.002885277187237</v>
       </c>
       <c r="D21">
-        <v>0.9977057032412059</v>
+        <v>1.025277807790095</v>
       </c>
       <c r="E21">
-        <v>0.9778147874492343</v>
+        <v>1.006232446806153</v>
       </c>
       <c r="F21">
-        <v>0.9937718891228601</v>
+        <v>1.023178321320726</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035707213778554</v>
+        <v>1.050341767260616</v>
       </c>
       <c r="J21">
-        <v>1.000721119692759</v>
+        <v>1.032262859506258</v>
       </c>
       <c r="K21">
-        <v>1.012730672534534</v>
+        <v>1.03979560385766</v>
       </c>
       <c r="L21">
-        <v>0.9932290182173236</v>
+        <v>1.021096697827318</v>
       </c>
       <c r="M21">
-        <v>1.008872223515565</v>
+        <v>1.037733487992825</v>
       </c>
       <c r="N21">
-        <v>1.002142258467039</v>
+        <v>1.033728791168962</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9616949476202856</v>
+        <v>0.9964332038605311</v>
       </c>
       <c r="D22">
-        <v>0.9910847885222992</v>
+        <v>1.019947663709054</v>
       </c>
       <c r="E22">
-        <v>0.9706972439445286</v>
+        <v>1.000614587854696</v>
       </c>
       <c r="F22">
-        <v>0.9863323660643039</v>
+        <v>1.017182514399216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032408904624544</v>
+        <v>1.047317211513432</v>
       </c>
       <c r="J22">
-        <v>0.9942135671854651</v>
+        <v>1.027330749313259</v>
       </c>
       <c r="K22">
-        <v>1.006834950767051</v>
+        <v>1.035134047129793</v>
       </c>
       <c r="L22">
-        <v>0.9868724353043576</v>
+        <v>1.016173879463648</v>
       </c>
       <c r="M22">
-        <v>1.002179532425191</v>
+        <v>1.032421098096105</v>
       </c>
       <c r="N22">
-        <v>0.9956254644887587</v>
+        <v>1.028789676813768</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9660919366513054</v>
+        <v>0.9998794584550545</v>
       </c>
       <c r="D23">
-        <v>0.9946277078455714</v>
+        <v>1.022793919863046</v>
       </c>
       <c r="E23">
-        <v>0.9745065705537992</v>
+        <v>1.00361500153166</v>
       </c>
       <c r="F23">
-        <v>0.9903130049683346</v>
+        <v>1.020383918713494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034175714026631</v>
+        <v>1.048933833705984</v>
       </c>
       <c r="J23">
-        <v>0.9976972535334437</v>
+        <v>1.02996560682732</v>
       </c>
       <c r="K23">
-        <v>1.009991048818356</v>
+        <v>1.037624276814174</v>
       </c>
       <c r="L23">
-        <v>0.9902755841071812</v>
+        <v>1.018804023321991</v>
       </c>
       <c r="M23">
-        <v>1.005761512196139</v>
+        <v>1.035258380352459</v>
       </c>
       <c r="N23">
-        <v>0.9991140980709357</v>
+        <v>1.031428276127721</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9825134861646454</v>
+        <v>1.012898460506021</v>
       </c>
       <c r="D24">
-        <v>1.007883365746787</v>
+        <v>1.033561281113017</v>
       </c>
       <c r="E24">
-        <v>0.9887456413429203</v>
+        <v>1.014954588138091</v>
       </c>
       <c r="F24">
-        <v>1.005213662320313</v>
+        <v>1.032501681473095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040746687437823</v>
+        <v>1.055016587038172</v>
       </c>
       <c r="J24">
-        <v>1.010701688064225</v>
+        <v>1.039908878667785</v>
       </c>
       <c r="K24">
-        <v>1.021773440701319</v>
+        <v>1.047023587444035</v>
       </c>
       <c r="L24">
-        <v>1.002973321368676</v>
+        <v>1.028724077257827</v>
       </c>
       <c r="M24">
-        <v>1.019149834671709</v>
+        <v>1.045981099353529</v>
       </c>
       <c r="N24">
-        <v>1.01213700039038</v>
+        <v>1.041385668554709</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000022768274191</v>
+        <v>1.027015187170832</v>
       </c>
       <c r="D25">
-        <v>1.02205402909117</v>
+        <v>1.045261389928913</v>
       </c>
       <c r="E25">
-        <v>1.003944618440903</v>
+        <v>1.027255816403983</v>
       </c>
       <c r="F25">
-        <v>1.021159286971385</v>
+        <v>1.045684122313814</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047692494844742</v>
+        <v>1.06156036068886</v>
       </c>
       <c r="J25">
-        <v>1.024549366200308</v>
+        <v>1.05066637476047</v>
       </c>
       <c r="K25">
-        <v>1.034319366364338</v>
+        <v>1.057195483053544</v>
       </c>
       <c r="L25">
-        <v>1.01648200636425</v>
+        <v>1.039445257731913</v>
       </c>
       <c r="M25">
-        <v>1.033437777823364</v>
+        <v>1.057612353677051</v>
       </c>
       <c r="N25">
-        <v>1.026004343817768</v>
+        <v>1.052158441525747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037596365451833</v>
+        <v>1.018590082705636</v>
       </c>
       <c r="D2">
-        <v>1.054046483389782</v>
+        <v>1.036096208770233</v>
       </c>
       <c r="E2">
-        <v>1.036477050954368</v>
+        <v>1.022362407338236</v>
       </c>
       <c r="F2">
-        <v>1.055595045234451</v>
+        <v>1.038915108259348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066421738483798</v>
+        <v>1.054871425854266</v>
       </c>
       <c r="J2">
-        <v>1.058707915465494</v>
+        <v>1.040228636934405</v>
       </c>
       <c r="K2">
-        <v>1.064800916704783</v>
+        <v>1.047074567777922</v>
       </c>
       <c r="L2">
-        <v>1.047450558468847</v>
+        <v>1.03351874711343</v>
       </c>
       <c r="M2">
-        <v>1.066330604114169</v>
+        <v>1.049857662911034</v>
       </c>
       <c r="N2">
-        <v>1.060211402140951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016869848995583</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048031347667535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044935887322669</v>
+        <v>1.02286452472108</v>
       </c>
       <c r="D3">
-        <v>1.060147095550614</v>
+        <v>1.039203483719379</v>
       </c>
       <c r="E3">
-        <v>1.04287229227077</v>
+        <v>1.025788238271689</v>
       </c>
       <c r="F3">
-        <v>1.062485258397674</v>
+        <v>1.04201406368992</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069767714249854</v>
+        <v>1.056292639240449</v>
       </c>
       <c r="J3">
-        <v>1.06427224875878</v>
+        <v>1.042750709236728</v>
       </c>
       <c r="K3">
-        <v>1.070064151876878</v>
+        <v>1.049358166888322</v>
       </c>
       <c r="L3">
-        <v>1.052984497556222</v>
+        <v>1.036101453148711</v>
       </c>
       <c r="M3">
-        <v>1.072376500414124</v>
+        <v>1.052136172532521</v>
       </c>
       <c r="N3">
-        <v>1.065783637425751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017746828721884</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049834614486971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049540424390205</v>
+        <v>1.025575751523212</v>
       </c>
       <c r="D4">
-        <v>1.063977040191896</v>
+        <v>1.041177136176438</v>
       </c>
       <c r="E4">
-        <v>1.046883553711749</v>
+        <v>1.027966472662793</v>
       </c>
       <c r="F4">
-        <v>1.066814637118695</v>
+        <v>1.043986702113981</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071854509228811</v>
+        <v>1.05718389553461</v>
       </c>
       <c r="J4">
-        <v>1.067756503526246</v>
+        <v>1.044347106167137</v>
       </c>
       <c r="K4">
-        <v>1.073360090113064</v>
+        <v>1.050802747096325</v>
       </c>
       <c r="L4">
-        <v>1.05644724093602</v>
+        <v>1.037738688903502</v>
       </c>
       <c r="M4">
-        <v>1.076168383919473</v>
+        <v>1.053581720996505</v>
       </c>
       <c r="N4">
-        <v>1.069272840234636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018301451808088</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050978653730989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051443465097861</v>
+        <v>1.026702896670997</v>
       </c>
       <c r="D5">
-        <v>1.065560505822693</v>
+        <v>1.041998259317668</v>
       </c>
       <c r="E5">
-        <v>1.048541129310951</v>
+        <v>1.028873261874975</v>
       </c>
       <c r="F5">
-        <v>1.068605501901335</v>
+        <v>1.044808427040661</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072713971158155</v>
+        <v>1.0575519319591</v>
       </c>
       <c r="J5">
-        <v>1.069194908682584</v>
+        <v>1.045009948899118</v>
       </c>
       <c r="K5">
-        <v>1.074720794750388</v>
+        <v>1.051402335955322</v>
       </c>
       <c r="L5">
-        <v>1.057876167462322</v>
+        <v>1.038419079707238</v>
       </c>
       <c r="M5">
-        <v>1.077735239756856</v>
+        <v>1.054182722028072</v>
       </c>
       <c r="N5">
-        <v>1.070713288091283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018531617192074</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051454298815609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051761128831519</v>
+        <v>1.026891419144204</v>
       </c>
       <c r="D6">
-        <v>1.065824855655012</v>
+        <v>1.042135632199366</v>
       </c>
       <c r="E6">
-        <v>1.048817801705967</v>
+        <v>1.029024999359696</v>
       </c>
       <c r="F6">
-        <v>1.068904529846963</v>
+        <v>1.044945960751248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072857258362358</v>
+        <v>1.057613341091171</v>
       </c>
       <c r="J6">
-        <v>1.069434916571344</v>
+        <v>1.045120763877328</v>
       </c>
       <c r="K6">
-        <v>1.074947839927205</v>
+        <v>1.051502562998756</v>
       </c>
       <c r="L6">
-        <v>1.058114558503431</v>
+        <v>1.038532863202372</v>
       </c>
       <c r="M6">
-        <v>1.077996765762666</v>
+        <v>1.054283244700136</v>
       </c>
       <c r="N6">
-        <v>1.070953636818775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018570089307107</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051533854581145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049565979012524</v>
+        <v>1.025590861670159</v>
       </c>
       <c r="D7">
-        <v>1.063998301333029</v>
+        <v>1.041188141535601</v>
       </c>
       <c r="E7">
-        <v>1.046905813278809</v>
+        <v>1.027978623994459</v>
       </c>
       <c r="F7">
-        <v>1.066838679371212</v>
+        <v>1.043997711497561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071866062296964</v>
+        <v>1.05718883919165</v>
       </c>
       <c r="J7">
-        <v>1.067775825372234</v>
+        <v>1.044355995352763</v>
       </c>
       <c r="K7">
-        <v>1.07337836806913</v>
+        <v>1.050810788875623</v>
       </c>
       <c r="L7">
-        <v>1.056466437830104</v>
+        <v>1.037747811082464</v>
       </c>
       <c r="M7">
-        <v>1.076189425478518</v>
+        <v>1.053589777715297</v>
       </c>
       <c r="N7">
-        <v>1.069292189519861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018304538971398</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050985029992744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040107943143956</v>
+        <v>1.020046221007199</v>
       </c>
       <c r="D8">
-        <v>1.056133499355074</v>
+        <v>1.03715413329969</v>
       </c>
       <c r="E8">
-        <v>1.038665643635628</v>
+        <v>1.02352832758164</v>
       </c>
       <c r="F8">
-        <v>1.057951408021288</v>
+        <v>1.039969305345592</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067569308232822</v>
+        <v>1.055357692528778</v>
       </c>
       <c r="J8">
-        <v>1.060613390528585</v>
+        <v>1.041088485592518</v>
       </c>
       <c r="K8">
-        <v>1.066603227671806</v>
+        <v>1.04785329104729</v>
       </c>
       <c r="L8">
-        <v>1.049346147393365</v>
+        <v>1.034398751979371</v>
       </c>
       <c r="M8">
-        <v>1.068399695758105</v>
+        <v>1.050633774413162</v>
       </c>
       <c r="N8">
-        <v>1.062119583197192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017168934258287</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04864558129935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022238437968614</v>
+        <v>1.009837509655473</v>
       </c>
       <c r="D9">
-        <v>1.04129963373869</v>
+        <v>1.029750875725328</v>
       </c>
       <c r="E9">
-        <v>1.023093026418955</v>
+        <v>1.0153782818003</v>
       </c>
       <c r="F9">
-        <v>1.04121844822385</v>
+        <v>1.032610246333238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059352922267053</v>
+        <v>1.051906985080855</v>
       </c>
       <c r="J9">
-        <v>1.047029621016165</v>
+        <v>1.035047599514136</v>
       </c>
       <c r="K9">
-        <v>1.053756395352679</v>
+        <v>1.042379026568516</v>
       </c>
       <c r="L9">
-        <v>1.035822225594645</v>
+        <v>1.02822668878146</v>
       </c>
       <c r="M9">
-        <v>1.053676397829158</v>
+        <v>1.045195508463186</v>
       </c>
       <c r="N9">
-        <v>1.048516523173984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015065900850067</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044341593810228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009365528483851</v>
+        <v>1.002793819514151</v>
       </c>
       <c r="D10">
-        <v>1.030637097131159</v>
+        <v>1.024690613095254</v>
       </c>
       <c r="E10">
-        <v>1.011876748779495</v>
+        <v>1.009799847711873</v>
       </c>
       <c r="F10">
-        <v>1.029209590866353</v>
+        <v>1.02765510512514</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053370027424401</v>
+        <v>1.049501390572896</v>
       </c>
       <c r="J10">
-        <v>1.037212429016627</v>
+        <v>1.030897027979141</v>
       </c>
       <c r="K10">
-        <v>1.044474378003117</v>
+        <v>1.038627935750689</v>
       </c>
       <c r="L10">
-        <v>1.026034825595187</v>
+        <v>1.023994388832181</v>
       </c>
       <c r="M10">
-        <v>1.04307075173409</v>
+        <v>1.041542367467982</v>
       </c>
       <c r="N10">
-        <v>1.03868538963576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013633174227671</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041501637582481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003523982667667</v>
+        <v>1.000353358000394</v>
       </c>
       <c r="D11">
-        <v>1.025805772220464</v>
+        <v>1.023169670203662</v>
       </c>
       <c r="E11">
-        <v>1.006788681397661</v>
+        <v>1.007980926436361</v>
       </c>
       <c r="F11">
-        <v>1.023772360536319</v>
+        <v>1.026589216298148</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050640678380749</v>
+        <v>1.048862475620308</v>
       </c>
       <c r="J11">
-        <v>1.032750891142033</v>
+        <v>1.029711444251523</v>
       </c>
       <c r="K11">
-        <v>1.040256903728349</v>
+        <v>1.03766747996547</v>
       </c>
       <c r="L11">
-        <v>1.021583698733274</v>
+        <v>1.022753887461333</v>
       </c>
       <c r="M11">
-        <v>1.03825947077696</v>
+        <v>1.0410265350308</v>
       </c>
       <c r="N11">
-        <v>1.034217515865637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013345344668511</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041528094036365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001310043303349</v>
+        <v>0.9996877468555296</v>
       </c>
       <c r="D12">
-        <v>1.023975938319573</v>
+        <v>1.02286017723508</v>
       </c>
       <c r="E12">
-        <v>1.004860690506404</v>
+        <v>1.007538686885109</v>
       </c>
       <c r="F12">
-        <v>1.021713633354212</v>
+        <v>1.026595193369104</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049604172251825</v>
+        <v>1.048780001774834</v>
       </c>
       <c r="J12">
-        <v>1.031059063041637</v>
+        <v>1.029505327676934</v>
       </c>
       <c r="K12">
-        <v>1.038657774840845</v>
+        <v>1.037562137296055</v>
       </c>
       <c r="L12">
-        <v>1.019895356101338</v>
+        <v>1.022522868836948</v>
       </c>
       <c r="M12">
-        <v>1.036436331693735</v>
+        <v>1.04123001298584</v>
       </c>
       <c r="N12">
-        <v>1.032523285175284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013371820536315</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042014339973454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001787006947564</v>
+        <v>1.000347905858725</v>
       </c>
       <c r="D13">
-        <v>1.02437009329911</v>
+        <v>1.023466744785908</v>
       </c>
       <c r="E13">
-        <v>1.005276031058555</v>
+        <v>1.008127090259701</v>
       </c>
       <c r="F13">
-        <v>1.022157066962464</v>
+        <v>1.027440918847171</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049827566435773</v>
+        <v>1.049127429949433</v>
       </c>
       <c r="J13">
-        <v>1.031423584364501</v>
+        <v>1.030044981773877</v>
       </c>
       <c r="K13">
-        <v>1.039002316057792</v>
+        <v>1.038115185072212</v>
       </c>
       <c r="L13">
-        <v>1.020259147170128</v>
+        <v>1.023056710290293</v>
       </c>
       <c r="M13">
-        <v>1.036829085648217</v>
+        <v>1.042018288821752</v>
       </c>
       <c r="N13">
-        <v>1.032888324160237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013643302853617</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042913405094787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003341902685017</v>
+        <v>1.001405043213959</v>
       </c>
       <c r="D14">
-        <v>1.025655256112244</v>
+        <v>1.024300769576752</v>
       </c>
       <c r="E14">
-        <v>1.006630110063054</v>
+        <v>1.009000551360859</v>
       </c>
       <c r="F14">
-        <v>1.023603004655812</v>
+        <v>1.028407830240251</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050555475296093</v>
+        <v>1.04956163424911</v>
       </c>
       <c r="J14">
-        <v>1.032611768827546</v>
+        <v>1.030755058035349</v>
       </c>
       <c r="K14">
-        <v>1.040125401082697</v>
+        <v>1.03879490026588</v>
       </c>
       <c r="L14">
-        <v>1.021444872357579</v>
+        <v>1.023771452310332</v>
       </c>
       <c r="M14">
-        <v>1.038109523757405</v>
+        <v>1.042829483933892</v>
       </c>
       <c r="N14">
-        <v>1.034078195981507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013941552699945</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043727445877215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004293950685453</v>
+        <v>1.001957036864568</v>
       </c>
       <c r="D15">
-        <v>1.026442316006728</v>
+        <v>1.024711742796096</v>
       </c>
       <c r="E15">
-        <v>1.007459253810081</v>
+        <v>1.009443764837849</v>
       </c>
       <c r="F15">
-        <v>1.024488602881266</v>
+        <v>1.028842630496108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051000895410702</v>
+        <v>1.049766264124709</v>
       </c>
       <c r="J15">
-        <v>1.033339166128356</v>
+        <v>1.031098029264382</v>
       </c>
       <c r="K15">
-        <v>1.040812965361795</v>
+        <v>1.039112782847595</v>
       </c>
       <c r="L15">
-        <v>1.022170703620555</v>
+        <v>1.024118805784097</v>
       </c>
       <c r="M15">
-        <v>1.038893571193063</v>
+        <v>1.04317134691339</v>
       </c>
       <c r="N15">
-        <v>1.034806626269917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014070818284247</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04403508520094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009747252415369</v>
+        <v>1.004815091975354</v>
       </c>
       <c r="D16">
-        <v>1.030952967765467</v>
+        <v>1.026743532317578</v>
       </c>
       <c r="E16">
-        <v>1.012209281125056</v>
+        <v>1.011687369641828</v>
       </c>
       <c r="F16">
-        <v>1.029565158314232</v>
+        <v>1.030811450584823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05354808922105</v>
+        <v>1.050735669010742</v>
       </c>
       <c r="J16">
-        <v>1.037503844301983</v>
+        <v>1.032762784377813</v>
       </c>
       <c r="K16">
-        <v>1.044749871052447</v>
+        <v>1.040610837422349</v>
       </c>
       <c r="L16">
-        <v>1.026325496832002</v>
+        <v>1.025812695774678</v>
       </c>
       <c r="M16">
-        <v>1.043385190428517</v>
+        <v>1.044610708683175</v>
       </c>
       <c r="N16">
-        <v>1.038977218764247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014627905320372</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04513416155088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013093728702131</v>
+        <v>1.006455040990427</v>
       </c>
       <c r="D17">
-        <v>1.033722951108145</v>
+        <v>1.027866118683141</v>
       </c>
       <c r="E17">
-        <v>1.015124714430169</v>
+        <v>1.01295373813589</v>
       </c>
       <c r="F17">
-        <v>1.032683719502094</v>
+        <v>1.031810815893349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055107497993718</v>
+        <v>1.051249319132468</v>
       </c>
       <c r="J17">
-        <v>1.040057869607605</v>
+        <v>1.033667401724239</v>
       </c>
       <c r="K17">
-        <v>1.047164448339151</v>
+        <v>1.041402579906201</v>
       </c>
       <c r="L17">
-        <v>1.028872649665282</v>
+        <v>1.026738390575531</v>
       </c>
       <c r="M17">
-        <v>1.046141966177329</v>
+        <v>1.045283164749935</v>
       </c>
       <c r="N17">
-        <v>1.041534871078754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014898834528182</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045537103164697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015020155358588</v>
+        <v>1.007183710531474</v>
       </c>
       <c r="D18">
-        <v>1.035318178004127</v>
+        <v>1.02828379725994</v>
       </c>
       <c r="E18">
-        <v>1.016803160539309</v>
+        <v>1.013477130715752</v>
       </c>
       <c r="F18">
-        <v>1.034480081330397</v>
+        <v>1.032015434779596</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056003828881078</v>
+        <v>1.051403556229594</v>
       </c>
       <c r="J18">
-        <v>1.041527487003173</v>
+        <v>1.033978046291731</v>
       </c>
       <c r="K18">
-        <v>1.048553903490304</v>
+        <v>1.041631544111482</v>
       </c>
       <c r="L18">
-        <v>1.030338018811181</v>
+        <v>1.027067216817725</v>
       </c>
       <c r="M18">
-        <v>1.047729051002085</v>
+        <v>1.045303512220557</v>
       </c>
       <c r="N18">
-        <v>1.043006575499589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014936769180038</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045316441120478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1232,93 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015672800290669</v>
+        <v>1.007071013737955</v>
       </c>
       <c r="D19">
-        <v>1.035858725582653</v>
+        <v>1.028046145543926</v>
       </c>
       <c r="E19">
-        <v>1.01737181589012</v>
+        <v>1.013313485186338</v>
       </c>
       <c r="F19">
-        <v>1.035088851079065</v>
+        <v>1.03147973241825</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056307260478328</v>
+        <v>1.051223871787412</v>
       </c>
       <c r="J19">
-        <v>1.042025262728393</v>
+        <v>1.033736440854243</v>
       </c>
       <c r="K19">
-        <v>1.049024539958076</v>
+        <v>1.041335666130947</v>
       </c>
       <c r="L19">
-        <v>1.030834305580429</v>
+        <v>1.026842967885948</v>
       </c>
       <c r="M19">
-        <v>1.048266749700359</v>
+        <v>1.044714589170749</v>
       </c>
       <c r="N19">
-        <v>1.043505058123436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014762247954909</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044526693565062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012737349542998</v>
+        <v>1.004624066246605</v>
       </c>
       <c r="D20">
-        <v>1.033427894935737</v>
+        <v>1.026005210945349</v>
       </c>
       <c r="E20">
-        <v>1.014814221989627</v>
+        <v>1.011247393018463</v>
       </c>
       <c r="F20">
-        <v>1.032351492819843</v>
+        <v>1.028943456419736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054941570957062</v>
+        <v>1.050131214655488</v>
       </c>
       <c r="J20">
-        <v>1.039785946350409</v>
+        <v>1.031977894295417</v>
       </c>
       <c r="K20">
-        <v>1.046907363659314</v>
+        <v>1.039605699940218</v>
       </c>
       <c r="L20">
-        <v>1.028601488604014</v>
+        <v>1.025095312273586</v>
       </c>
       <c r="M20">
-        <v>1.045848372800843</v>
+        <v>1.042495771597813</v>
       </c>
       <c r="N20">
-        <v>1.041262561659342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014006986566941</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042245643033117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002885277187237</v>
+        <v>0.9991915874112829</v>
       </c>
       <c r="D21">
-        <v>1.025277807790095</v>
+        <v>1.022066183546194</v>
       </c>
       <c r="E21">
-        <v>1.006232446806153</v>
+        <v>1.006937187147595</v>
       </c>
       <c r="F21">
-        <v>1.023178321320726</v>
+        <v>1.025012207014225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050341767260616</v>
+        <v>1.048219239680704</v>
       </c>
       <c r="J21">
-        <v>1.032262859506258</v>
+        <v>1.028723146949853</v>
       </c>
       <c r="K21">
-        <v>1.03979560385766</v>
+        <v>1.036641226925074</v>
       </c>
       <c r="L21">
-        <v>1.021096697827318</v>
+        <v>1.021788313577246</v>
       </c>
       <c r="M21">
-        <v>1.037733487992825</v>
+        <v>1.039534719767261</v>
       </c>
       <c r="N21">
-        <v>1.033728791168962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012860652031458</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03986146900882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9964332038605311</v>
+        <v>0.9957413201738944</v>
       </c>
       <c r="D22">
-        <v>1.019947663709054</v>
+        <v>1.019583884267258</v>
       </c>
       <c r="E22">
-        <v>1.000614587854696</v>
+        <v>1.004213850006868</v>
       </c>
       <c r="F22">
-        <v>1.017182514399216</v>
+        <v>1.022565859619079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047317211513432</v>
+        <v>1.047007867778572</v>
       </c>
       <c r="J22">
-        <v>1.027330749313259</v>
+        <v>1.026669575614907</v>
       </c>
       <c r="K22">
-        <v>1.035134047129793</v>
+        <v>1.034777113959222</v>
       </c>
       <c r="L22">
-        <v>1.016173879463648</v>
+        <v>1.019702289363355</v>
       </c>
       <c r="M22">
-        <v>1.032421098096105</v>
+        <v>1.037703156552574</v>
       </c>
       <c r="N22">
-        <v>1.028789676813768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012144068030417</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038411906777995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9998794584550545</v>
+        <v>0.9975779204355035</v>
       </c>
       <c r="D23">
-        <v>1.022793919863046</v>
+        <v>1.02090471233417</v>
       </c>
       <c r="E23">
-        <v>1.00361500153166</v>
+        <v>1.005662755026641</v>
       </c>
       <c r="F23">
-        <v>1.020383918713494</v>
+        <v>1.023867097639067</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048933833705984</v>
+        <v>1.047653586438287</v>
       </c>
       <c r="J23">
-        <v>1.02996560682732</v>
+        <v>1.027762897742467</v>
       </c>
       <c r="K23">
-        <v>1.037624276814174</v>
+        <v>1.035769620119968</v>
       </c>
       <c r="L23">
-        <v>1.018804023321991</v>
+        <v>1.020812628351291</v>
       </c>
       <c r="M23">
-        <v>1.035258380352459</v>
+        <v>1.038677901634967</v>
       </c>
       <c r="N23">
-        <v>1.031428276127721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012525603829233</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039183353983697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012898460506021</v>
+        <v>1.004645050160161</v>
       </c>
       <c r="D24">
-        <v>1.033561281113017</v>
+        <v>1.025998019225144</v>
       </c>
       <c r="E24">
-        <v>1.014954588138091</v>
+        <v>1.011253952245768</v>
       </c>
       <c r="F24">
-        <v>1.032501681473095</v>
+        <v>1.028894878041446</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055016587038172</v>
+        <v>1.050118399255781</v>
       </c>
       <c r="J24">
-        <v>1.039908878667785</v>
+        <v>1.03196545776933</v>
       </c>
       <c r="K24">
-        <v>1.047023587444035</v>
+        <v>1.039583460903503</v>
       </c>
       <c r="L24">
-        <v>1.028724077257827</v>
+        <v>1.02508627677143</v>
       </c>
       <c r="M24">
-        <v>1.045981099353529</v>
+        <v>1.042432881903438</v>
       </c>
       <c r="N24">
-        <v>1.041385668554709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013991555241368</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042155168409948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027015187170832</v>
+        <v>1.012531591902032</v>
       </c>
       <c r="D25">
-        <v>1.045261389928913</v>
+        <v>1.031701454773577</v>
       </c>
       <c r="E25">
-        <v>1.027255816403983</v>
+        <v>1.017523697463819</v>
       </c>
       <c r="F25">
-        <v>1.045684122313814</v>
+        <v>1.034545202967854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06156036068886</v>
+        <v>1.052826614102214</v>
       </c>
       <c r="J25">
-        <v>1.05066637476047</v>
+        <v>1.036644454706634</v>
       </c>
       <c r="K25">
-        <v>1.057195483053544</v>
+        <v>1.043826800671773</v>
       </c>
       <c r="L25">
-        <v>1.039445257731913</v>
+        <v>1.029855937501375</v>
       </c>
       <c r="M25">
-        <v>1.057612353677051</v>
+        <v>1.046629914346403</v>
       </c>
       <c r="N25">
-        <v>1.052158441525747</v>
+        <v>1.015622196766157</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045476823004043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018590082705636</v>
+        <v>1.017097284855656</v>
       </c>
       <c r="D2">
-        <v>1.036096208770233</v>
+        <v>1.033962189946507</v>
       </c>
       <c r="E2">
-        <v>1.022362407338236</v>
+        <v>1.021119008984577</v>
       </c>
       <c r="F2">
-        <v>1.038915108259348</v>
+        <v>1.037383801258745</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054871425854266</v>
+        <v>1.053688889325522</v>
       </c>
       <c r="J2">
-        <v>1.040228636934405</v>
+        <v>1.038778373520052</v>
       </c>
       <c r="K2">
-        <v>1.047074567777922</v>
+        <v>1.044967816551392</v>
       </c>
       <c r="L2">
-        <v>1.03351874711343</v>
+        <v>1.032291758778521</v>
       </c>
       <c r="M2">
-        <v>1.049857662911034</v>
+        <v>1.048345775716683</v>
       </c>
       <c r="N2">
-        <v>1.016869848995583</v>
+        <v>1.01721368453802</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048031347667535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046834801687276</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023851893466746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02286452472108</v>
+        <v>1.021090368076566</v>
       </c>
       <c r="D3">
-        <v>1.039203483719379</v>
+        <v>1.036742157394032</v>
       </c>
       <c r="E3">
-        <v>1.025788238271689</v>
+        <v>1.02429320632629</v>
       </c>
       <c r="F3">
-        <v>1.04201406368992</v>
+        <v>1.04024005226789</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056292639240449</v>
+        <v>1.054913725116753</v>
       </c>
       <c r="J3">
-        <v>1.042750709236728</v>
+        <v>1.041022146242648</v>
       </c>
       <c r="K3">
-        <v>1.049358166888322</v>
+        <v>1.046925546513793</v>
       </c>
       <c r="L3">
-        <v>1.036101453148711</v>
+        <v>1.034624407580467</v>
       </c>
       <c r="M3">
-        <v>1.052136172532521</v>
+        <v>1.050382696394142</v>
       </c>
       <c r="N3">
-        <v>1.017746828721884</v>
+        <v>1.017827414798895</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049834614486971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048446872067663</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024283272578233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025575751523212</v>
+        <v>1.023625368343185</v>
       </c>
       <c r="D4">
-        <v>1.041177136176438</v>
+        <v>1.038509744111596</v>
       </c>
       <c r="E4">
-        <v>1.027966472662793</v>
+        <v>1.02631372613632</v>
       </c>
       <c r="F4">
-        <v>1.043986702113981</v>
+        <v>1.042060157541598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05718389553461</v>
+        <v>1.055681202839168</v>
       </c>
       <c r="J4">
-        <v>1.044347106167137</v>
+        <v>1.042443451431506</v>
       </c>
       <c r="K4">
-        <v>1.050802747096325</v>
+        <v>1.048164587163139</v>
       </c>
       <c r="L4">
-        <v>1.037738688903502</v>
+        <v>1.03610461104831</v>
       </c>
       <c r="M4">
-        <v>1.053581720996505</v>
+        <v>1.051676131841137</v>
       </c>
       <c r="N4">
-        <v>1.018301451808088</v>
+        <v>1.018216015844708</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050978653730989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049470527671705</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02455366071362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026702896670997</v>
+        <v>1.024679754025719</v>
       </c>
       <c r="D5">
-        <v>1.041998259317668</v>
+        <v>1.039245549205655</v>
       </c>
       <c r="E5">
-        <v>1.028873261874975</v>
+        <v>1.027155381301498</v>
       </c>
       <c r="F5">
-        <v>1.044808427040661</v>
+        <v>1.042818789513708</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0575519319591</v>
+        <v>1.055997957038629</v>
       </c>
       <c r="J5">
-        <v>1.045009948899118</v>
+        <v>1.043033829472175</v>
       </c>
       <c r="K5">
-        <v>1.051402335955322</v>
+        <v>1.0486789898141</v>
       </c>
       <c r="L5">
-        <v>1.038419079707238</v>
+        <v>1.036720080434436</v>
       </c>
       <c r="M5">
-        <v>1.054182722028072</v>
+        <v>1.052214150017854</v>
       </c>
       <c r="N5">
-        <v>1.018531617192074</v>
+        <v>1.018377390011611</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051454298815609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049896327650001</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024665277754864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026891419144204</v>
+        <v>1.024856135679146</v>
       </c>
       <c r="D6">
-        <v>1.042135632199366</v>
+        <v>1.039368672108548</v>
       </c>
       <c r="E6">
-        <v>1.029024999359696</v>
+        <v>1.027296249540459</v>
       </c>
       <c r="F6">
-        <v>1.044945960751248</v>
+        <v>1.042945788797311</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057613341091171</v>
+        <v>1.056050798949374</v>
       </c>
       <c r="J6">
-        <v>1.045120763877328</v>
+        <v>1.043132542986416</v>
       </c>
       <c r="K6">
-        <v>1.051502562998756</v>
+        <v>1.048764983984104</v>
       </c>
       <c r="L6">
-        <v>1.038532863202372</v>
+        <v>1.036823026219014</v>
       </c>
       <c r="M6">
-        <v>1.054283244700136</v>
+        <v>1.052304153007428</v>
       </c>
       <c r="N6">
-        <v>1.018570089307107</v>
+        <v>1.018404369855872</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051533854581145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049967558065422</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024683899393123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025590861670159</v>
+        <v>1.023649411669742</v>
       </c>
       <c r="D7">
-        <v>1.041188141535601</v>
+        <v>1.038527278140812</v>
       </c>
       <c r="E7">
-        <v>1.027978623994459</v>
+        <v>1.026334271651067</v>
       </c>
       <c r="F7">
-        <v>1.043997711497561</v>
+        <v>1.042076639655199</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05718883919165</v>
+        <v>1.055690863437568</v>
       </c>
       <c r="J7">
-        <v>1.044355995352763</v>
+        <v>1.042461040475492</v>
       </c>
       <c r="K7">
-        <v>1.050810788875623</v>
+        <v>1.048179075383759</v>
       </c>
       <c r="L7">
-        <v>1.037747811082464</v>
+        <v>1.0361220256671</v>
       </c>
       <c r="M7">
-        <v>1.053589777715297</v>
+        <v>1.051689594142854</v>
       </c>
       <c r="N7">
-        <v>1.018304538971398</v>
+        <v>1.01824739101885</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050985029992744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049481182050356</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024557915410901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020046221007199</v>
+        <v>1.018487625356842</v>
       </c>
       <c r="D8">
-        <v>1.03715413329969</v>
+        <v>1.034931986199121</v>
       </c>
       <c r="E8">
-        <v>1.02352832758164</v>
+        <v>1.022227476780349</v>
       </c>
       <c r="F8">
-        <v>1.039969305345592</v>
+        <v>1.038374531666559</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055357692528778</v>
+        <v>1.054124728141814</v>
       </c>
       <c r="J8">
-        <v>1.041088485592518</v>
+        <v>1.03957280300704</v>
       </c>
       <c r="K8">
-        <v>1.04785329104729</v>
+        <v>1.045658691343449</v>
       </c>
       <c r="L8">
-        <v>1.034398751979371</v>
+        <v>1.033114550337459</v>
       </c>
       <c r="M8">
-        <v>1.050633774413162</v>
+        <v>1.049058622867137</v>
       </c>
       <c r="N8">
-        <v>1.017168934258287</v>
+        <v>1.017511974776441</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04864558129935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047398967294659</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024008138211514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009837509655473</v>
+        <v>1.00896984142158</v>
       </c>
       <c r="D9">
-        <v>1.029750875725328</v>
+        <v>1.028323850671665</v>
       </c>
       <c r="E9">
-        <v>1.0153782818003</v>
+        <v>1.014694758870182</v>
       </c>
       <c r="F9">
-        <v>1.032610246333238</v>
+        <v>1.031607089710137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051906985080855</v>
+        <v>1.051150478273208</v>
       </c>
       <c r="J9">
-        <v>1.035047599514136</v>
+        <v>1.034209779674157</v>
       </c>
       <c r="K9">
-        <v>1.042379026568516</v>
+        <v>1.040973519606825</v>
       </c>
       <c r="L9">
-        <v>1.02822668878146</v>
+        <v>1.027553839383304</v>
       </c>
       <c r="M9">
-        <v>1.045195508463186</v>
+        <v>1.044207364089184</v>
       </c>
       <c r="N9">
-        <v>1.015065900850067</v>
+        <v>1.016054422908023</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044341593810228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043559547511627</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022961743552533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002793819514151</v>
+        <v>1.002452240966482</v>
       </c>
       <c r="D10">
-        <v>1.024690613095254</v>
+        <v>1.023847611084749</v>
       </c>
       <c r="E10">
-        <v>1.009799847711873</v>
+        <v>1.009585959631075</v>
       </c>
       <c r="F10">
-        <v>1.02765510512514</v>
+        <v>1.027090730311749</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049501390572896</v>
+        <v>1.049096861442367</v>
       </c>
       <c r="J10">
-        <v>1.030897027979141</v>
+        <v>1.030568901618149</v>
       </c>
       <c r="K10">
-        <v>1.038627935750689</v>
+        <v>1.037799237555792</v>
       </c>
       <c r="L10">
-        <v>1.023994388832181</v>
+        <v>1.023784267046363</v>
       </c>
       <c r="M10">
-        <v>1.041542367467982</v>
+        <v>1.040987494324903</v>
       </c>
       <c r="N10">
-        <v>1.013633174227671</v>
+        <v>1.015187688723442</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041501637582481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041062520359646</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022253959857883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000353358000394</v>
+        <v>1.000183014267946</v>
       </c>
       <c r="D11">
-        <v>1.023169670203662</v>
+        <v>1.022508672435409</v>
       </c>
       <c r="E11">
-        <v>1.007980926436361</v>
+        <v>1.007910551552524</v>
       </c>
       <c r="F11">
-        <v>1.026589216298148</v>
+        <v>1.026163715840237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048862475620308</v>
+        <v>1.048569174959334</v>
       </c>
       <c r="J11">
-        <v>1.029711444251523</v>
+        <v>1.029548181614109</v>
       </c>
       <c r="K11">
-        <v>1.03766747996547</v>
+        <v>1.037018235669515</v>
       </c>
       <c r="L11">
-        <v>1.022753887461333</v>
+        <v>1.022684812610778</v>
       </c>
       <c r="M11">
-        <v>1.0410265350308</v>
+        <v>1.040608533109523</v>
       </c>
       <c r="N11">
-        <v>1.013345344668511</v>
+        <v>1.0152197761254</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041528094036365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041197459604993</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022160106982945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9996877468555296</v>
+        <v>0.9995360191174899</v>
       </c>
       <c r="D12">
-        <v>1.02286017723508</v>
+        <v>1.022221350284203</v>
       </c>
       <c r="E12">
-        <v>1.007538686885109</v>
+        <v>1.007475505972703</v>
       </c>
       <c r="F12">
-        <v>1.026595193369104</v>
+        <v>1.026186659374866</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048780001774834</v>
+        <v>1.048499836175056</v>
       </c>
       <c r="J12">
-        <v>1.029505327676934</v>
+        <v>1.029360028436554</v>
       </c>
       <c r="K12">
-        <v>1.037562137296055</v>
+        <v>1.036934857757296</v>
       </c>
       <c r="L12">
-        <v>1.022522868836948</v>
+        <v>1.022460874928019</v>
       </c>
       <c r="M12">
-        <v>1.04123001298584</v>
+        <v>1.040828791855926</v>
       </c>
       <c r="N12">
-        <v>1.013371820536315</v>
+        <v>1.015330953111701</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042014339973454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04169708568345</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022199569704942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000347905858725</v>
+        <v>1.000085476928958</v>
       </c>
       <c r="D13">
-        <v>1.023466744785908</v>
+        <v>1.022718645861482</v>
       </c>
       <c r="E13">
-        <v>1.008127090259701</v>
+        <v>1.007955406374173</v>
       </c>
       <c r="F13">
-        <v>1.027440918847171</v>
+        <v>1.026948625787281</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049127429949433</v>
+        <v>1.048778918741175</v>
       </c>
       <c r="J13">
-        <v>1.030044981773877</v>
+        <v>1.02979361185225</v>
       </c>
       <c r="K13">
-        <v>1.038115185072212</v>
+        <v>1.037380544715059</v>
       </c>
       <c r="L13">
-        <v>1.023056710290293</v>
+        <v>1.022888236631501</v>
       </c>
       <c r="M13">
-        <v>1.042018288821752</v>
+        <v>1.04153476071162</v>
       </c>
       <c r="N13">
-        <v>1.013643302853617</v>
+        <v>1.01547459299386</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042913405094787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042531164379332</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02234435406397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001405043213959</v>
+        <v>1.001009369549962</v>
       </c>
       <c r="D14">
-        <v>1.024300769576752</v>
+        <v>1.02341929222156</v>
       </c>
       <c r="E14">
-        <v>1.009000551360859</v>
+        <v>1.008703717935836</v>
       </c>
       <c r="F14">
-        <v>1.028407830240251</v>
+        <v>1.027813427280769</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04956163424911</v>
+        <v>1.049130011418636</v>
       </c>
       <c r="J14">
-        <v>1.030755058035349</v>
+        <v>1.030375811908446</v>
       </c>
       <c r="K14">
-        <v>1.03879490026588</v>
+        <v>1.037929076677002</v>
       </c>
       <c r="L14">
-        <v>1.023771452310332</v>
+        <v>1.023480096611718</v>
       </c>
       <c r="M14">
-        <v>1.042829483933892</v>
+        <v>1.042245523895421</v>
       </c>
       <c r="N14">
-        <v>1.013941552699945</v>
+        <v>1.015590416853063</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043727445877215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043265873243213</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022492726266155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001957036864568</v>
+        <v>1.001500824385699</v>
       </c>
       <c r="D15">
-        <v>1.024711742796096</v>
+        <v>1.023768966357385</v>
       </c>
       <c r="E15">
-        <v>1.009443764837849</v>
+        <v>1.009091579393389</v>
       </c>
       <c r="F15">
-        <v>1.028842630496108</v>
+        <v>1.028201354742075</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049766264124709</v>
+        <v>1.049296552190799</v>
       </c>
       <c r="J15">
-        <v>1.031098029264382</v>
+        <v>1.030660588479305</v>
       </c>
       <c r="K15">
-        <v>1.039112782847595</v>
+        <v>1.03818661861679</v>
       </c>
       <c r="L15">
-        <v>1.024118805784097</v>
+        <v>1.023773068104607</v>
       </c>
       <c r="M15">
-        <v>1.04317134691339</v>
+        <v>1.042541249278715</v>
       </c>
       <c r="N15">
-        <v>1.014070818284247</v>
+        <v>1.01563134931965</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04403508520094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043537057600083</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022555078090869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004815091975354</v>
+        <v>1.004093214065537</v>
       </c>
       <c r="D16">
-        <v>1.026743532317578</v>
+        <v>1.025525279773621</v>
       </c>
       <c r="E16">
-        <v>1.011687369641828</v>
+        <v>1.011099364084508</v>
       </c>
       <c r="F16">
-        <v>1.030811450584823</v>
+        <v>1.02996028306441</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050735669010742</v>
+        <v>1.05009588504123</v>
       </c>
       <c r="J16">
-        <v>1.032762784377813</v>
+        <v>1.032069098943796</v>
       </c>
       <c r="K16">
-        <v>1.040610837422349</v>
+        <v>1.039413098965543</v>
       </c>
       <c r="L16">
-        <v>1.025812695774678</v>
+        <v>1.025234968969026</v>
       </c>
       <c r="M16">
-        <v>1.044610708683175</v>
+        <v>1.043773721968552</v>
       </c>
       <c r="N16">
-        <v>1.014627905320372</v>
+        <v>1.015791962683598</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04513416155088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.04447259037335</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022818150666597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006455040990427</v>
+        <v>1.005609382278284</v>
       </c>
       <c r="D17">
-        <v>1.027866118683141</v>
+        <v>1.026513884379315</v>
       </c>
       <c r="E17">
-        <v>1.01295373813589</v>
+        <v>1.01225909108328</v>
       </c>
       <c r="F17">
-        <v>1.031810815893349</v>
+        <v>1.030858308187363</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051249319132468</v>
+        <v>1.050527869997454</v>
       </c>
       <c r="J17">
-        <v>1.033667401724239</v>
+        <v>1.032853693846893</v>
       </c>
       <c r="K17">
-        <v>1.041402579906201</v>
+        <v>1.040072468996472</v>
       </c>
       <c r="L17">
-        <v>1.026738390575531</v>
+        <v>1.026055534860613</v>
       </c>
       <c r="M17">
-        <v>1.045283164749935</v>
+        <v>1.044346080257909</v>
       </c>
       <c r="N17">
-        <v>1.014898834528182</v>
+        <v>1.015883872091684</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045537103164697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.044796339210158</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022943172963344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007183710531474</v>
+        <v>1.006315171981558</v>
       </c>
       <c r="D18">
-        <v>1.02828379725994</v>
+        <v>1.026900758558757</v>
       </c>
       <c r="E18">
-        <v>1.013477130715752</v>
+        <v>1.012768384694348</v>
       </c>
       <c r="F18">
-        <v>1.032015434779596</v>
+        <v>1.031040098742103</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051403556229594</v>
+        <v>1.05066446056426</v>
       </c>
       <c r="J18">
-        <v>1.033978046291731</v>
+        <v>1.033141704519424</v>
       </c>
       <c r="K18">
-        <v>1.041631544111482</v>
+        <v>1.040270761738803</v>
       </c>
       <c r="L18">
-        <v>1.027067216817725</v>
+        <v>1.026370299744665</v>
       </c>
       <c r="M18">
-        <v>1.045303512220557</v>
+        <v>1.044343718504807</v>
       </c>
       <c r="N18">
-        <v>1.014936769180038</v>
+        <v>1.01587797776832</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045316441120478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.044557568482014</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022948928791212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007071013737955</v>
+        <v>1.006265634194252</v>
       </c>
       <c r="D19">
-        <v>1.028046145543926</v>
+        <v>1.026722505792885</v>
       </c>
       <c r="E19">
-        <v>1.013313485186338</v>
+        <v>1.012669466958414</v>
       </c>
       <c r="F19">
-        <v>1.03147973241825</v>
+        <v>1.030549868851303</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051223871787412</v>
+        <v>1.05052268337886</v>
       </c>
       <c r="J19">
-        <v>1.033736440854243</v>
+        <v>1.032960749229898</v>
       </c>
       <c r="K19">
-        <v>1.041335666130947</v>
+        <v>1.04003322438304</v>
       </c>
       <c r="L19">
-        <v>1.026842967885948</v>
+        <v>1.026209644378045</v>
       </c>
       <c r="M19">
-        <v>1.044714589170749</v>
+        <v>1.043799483261163</v>
       </c>
       <c r="N19">
-        <v>1.014762247954909</v>
+        <v>1.015761500001674</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044526693565062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.0438029193531</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022842139969489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004624066246605</v>
+        <v>1.004116581084823</v>
       </c>
       <c r="D20">
-        <v>1.026005210945349</v>
+        <v>1.024987739260935</v>
       </c>
       <c r="E20">
-        <v>1.011247393018463</v>
+        <v>1.010883952756953</v>
       </c>
       <c r="F20">
-        <v>1.028943456419736</v>
+        <v>1.028246318500622</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050131214655488</v>
+        <v>1.049619604852456</v>
       </c>
       <c r="J20">
-        <v>1.031977894295417</v>
+        <v>1.031489732570264</v>
       </c>
       <c r="K20">
-        <v>1.039605699940218</v>
+        <v>1.038604992983326</v>
       </c>
       <c r="L20">
-        <v>1.025095312273586</v>
+        <v>1.02473808322622</v>
       </c>
       <c r="M20">
-        <v>1.042495771597813</v>
+        <v>1.0418100315354</v>
       </c>
       <c r="N20">
-        <v>1.014006986566941</v>
+        <v>1.015335896867179</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042245643033117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.041702953550435</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022431626066924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9991915874112829</v>
+        <v>0.9992468554861488</v>
       </c>
       <c r="D21">
-        <v>1.022066183546194</v>
+        <v>1.021623512572735</v>
       </c>
       <c r="E21">
-        <v>1.006937187147595</v>
+        <v>1.007085983999921</v>
       </c>
       <c r="F21">
-        <v>1.025012207014225</v>
+        <v>1.024755551777918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048219239680704</v>
+        <v>1.048063825706077</v>
       </c>
       <c r="J21">
-        <v>1.028723146949853</v>
+        <v>1.028776099146022</v>
       </c>
       <c r="K21">
-        <v>1.036641226925074</v>
+        <v>1.036206483238465</v>
       </c>
       <c r="L21">
-        <v>1.021788313577246</v>
+        <v>1.021934342404733</v>
       </c>
       <c r="M21">
-        <v>1.039534719767261</v>
+        <v>1.039282625371067</v>
       </c>
       <c r="N21">
-        <v>1.012860652031458</v>
+        <v>1.015020778870521</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03986146900882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.039661952992038</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021895382211337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9957413201738944</v>
+        <v>0.9961515644095293</v>
       </c>
       <c r="D22">
-        <v>1.019583884267258</v>
+        <v>1.019503686953125</v>
       </c>
       <c r="E22">
-        <v>1.004213850006868</v>
+        <v>1.004685625148213</v>
       </c>
       <c r="F22">
-        <v>1.022565859619079</v>
+        <v>1.022587264329438</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047007867778572</v>
+        <v>1.047076259960996</v>
       </c>
       <c r="J22">
-        <v>1.026669575614907</v>
+        <v>1.02706160335906</v>
       </c>
       <c r="K22">
-        <v>1.034777113959222</v>
+        <v>1.034698426804427</v>
       </c>
       <c r="L22">
-        <v>1.019702289363355</v>
+        <v>1.020164826884526</v>
       </c>
       <c r="M22">
-        <v>1.037703156552574</v>
+        <v>1.037724161314928</v>
       </c>
       <c r="N22">
-        <v>1.012144068030417</v>
+        <v>1.014821636608168</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038411906777995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.038428530687218</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021561165156773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9975779204355035</v>
+        <v>0.9977827772347081</v>
       </c>
       <c r="D23">
-        <v>1.02090471233417</v>
+        <v>1.020618632254217</v>
       </c>
       <c r="E23">
-        <v>1.005662755026641</v>
+        <v>1.005946776995022</v>
       </c>
       <c r="F23">
-        <v>1.023867097639067</v>
+        <v>1.023729834431176</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047653586438287</v>
+        <v>1.047593987826985</v>
       </c>
       <c r="J23">
-        <v>1.027762897742467</v>
+        <v>1.02795893152977</v>
       </c>
       <c r="K23">
-        <v>1.035769620119968</v>
+        <v>1.035488786549012</v>
       </c>
       <c r="L23">
-        <v>1.020812628351291</v>
+        <v>1.021091236919227</v>
       </c>
       <c r="M23">
-        <v>1.038677901634967</v>
+        <v>1.038543136343555</v>
       </c>
       <c r="N23">
-        <v>1.012525603829233</v>
+        <v>1.014882510687319</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039183353983697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.03907669608807</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021734241175606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004645050160161</v>
+        <v>1.004142956252243</v>
       </c>
       <c r="D24">
-        <v>1.025998019225144</v>
+        <v>1.024985316640869</v>
       </c>
       <c r="E24">
-        <v>1.011253952245768</v>
+        <v>1.010896365976327</v>
       </c>
       <c r="F24">
-        <v>1.028894878041446</v>
+        <v>1.028201443268238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050118399255781</v>
+        <v>1.049609911112643</v>
       </c>
       <c r="J24">
-        <v>1.03196545776933</v>
+        <v>1.031482453927535</v>
       </c>
       <c r="K24">
-        <v>1.039583460903503</v>
+        <v>1.038587423311628</v>
       </c>
       <c r="L24">
-        <v>1.02508627677143</v>
+        <v>1.024734793668687</v>
       </c>
       <c r="M24">
-        <v>1.042432881903438</v>
+        <v>1.041750771267044</v>
       </c>
       <c r="N24">
-        <v>1.013991555241368</v>
+        <v>1.015323100054649</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042155168409948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.04161532461027</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022420412917469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012531591902032</v>
+        <v>1.011467024584528</v>
       </c>
       <c r="D25">
-        <v>1.031701454773577</v>
+        <v>1.030053524375973</v>
       </c>
       <c r="E25">
-        <v>1.017523697463819</v>
+        <v>1.016663848257359</v>
       </c>
       <c r="F25">
-        <v>1.034545202967854</v>
+        <v>1.033376640023027</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052826614102214</v>
+        <v>1.051936945430182</v>
       </c>
       <c r="J25">
-        <v>1.036644454706634</v>
+        <v>1.035614545656888</v>
       </c>
       <c r="K25">
-        <v>1.043826800671773</v>
+        <v>1.042202547729546</v>
       </c>
       <c r="L25">
-        <v>1.029855937501375</v>
+        <v>1.029008871925514</v>
       </c>
       <c r="M25">
-        <v>1.046629914346403</v>
+        <v>1.045478014824724</v>
       </c>
       <c r="N25">
-        <v>1.015622196766157</v>
+        <v>1.016404878464904</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045476823004043</v>
+        <v>1.044565177436369</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023237206117165</v>
       </c>
     </row>
   </sheetData>
